--- a/data/trans_orig/P29_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47028</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34357</v>
+        <v>34811</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61867</v>
+        <v>60747</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1474958473347479</v>
+        <v>0.147495847334748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1077545902021823</v>
+        <v>0.109179060343174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1940341576420791</v>
+        <v>0.1905207157485156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -762,19 +762,19 @@
         <v>60159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49311</v>
+        <v>48080</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76384</v>
+        <v>73823</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1903389080764958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1560177981094684</v>
+        <v>0.1521217176252735</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2416748412271469</v>
+        <v>0.2335704978035271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -783,19 +783,19 @@
         <v>107187</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89642</v>
+        <v>89480</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126157</v>
+        <v>127589</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1688234248729549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1411889929678327</v>
+        <v>0.1409344923907962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1987020841392905</v>
+        <v>0.2009570124473813</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>48120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34497</v>
+        <v>35563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64503</v>
+        <v>63330</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1509185047899133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1081933586943746</v>
+        <v>0.1115367603002839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2023019022281568</v>
+        <v>0.1986216042708767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -833,19 +833,19 @@
         <v>71245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60503</v>
+        <v>59199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83925</v>
+        <v>82850</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2254168741244875</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1914280259807382</v>
+        <v>0.1873031023035189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2655346279388504</v>
+        <v>0.2621331091351547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>182</v>
@@ -854,19 +854,19 @@
         <v>119365</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101809</v>
+        <v>102930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138571</v>
+        <v>139740</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1880043180101826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1603532877922685</v>
+        <v>0.162117975635122</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.218254374751154</v>
+        <v>0.2200957148611508</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>22505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13893</v>
+        <v>14639</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35711</v>
+        <v>35481</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07058144779936519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0435734433185167</v>
+        <v>0.04591267300579621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1119999480081421</v>
+        <v>0.1112783508616934</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -904,19 +904,19 @@
         <v>37427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29254</v>
+        <v>29547</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46194</v>
+        <v>46359</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1184168572538047</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09255801448529775</v>
+        <v>0.09348498805781974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1461550333964452</v>
+        <v>0.1466762205104319</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -925,19 +925,19 @@
         <v>59931</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47973</v>
+        <v>48827</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76891</v>
+        <v>77702</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09439425170619026</v>
+        <v>0.09439425170619024</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07555859797682703</v>
+        <v>0.07690463105724003</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1211055624438592</v>
+        <v>0.1223827465071998</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>43579</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32916</v>
+        <v>32322</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58351</v>
+        <v>57615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1366761387379748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1032345065873229</v>
+        <v>0.1013709073651094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1830069838741977</v>
+        <v>0.1806993187426262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>124</v>
@@ -975,19 +975,19 @@
         <v>77218</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65520</v>
+        <v>65776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91796</v>
+        <v>91651</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2443126364039342</v>
+        <v>0.2443126364039343</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2073003265683475</v>
+        <v>0.2081126407065398</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2904386655223011</v>
+        <v>0.2899793388778373</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>169</v>
@@ -996,19 +996,19 @@
         <v>120796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104809</v>
+        <v>103221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139837</v>
+        <v>138292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1902583457551042</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1650774693748642</v>
+        <v>0.1625772162700024</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2202478281956514</v>
+        <v>0.2178144227973663</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>103499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86204</v>
+        <v>85709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>120642</v>
+        <v>119393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3246056961738278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2703626577400562</v>
+        <v>0.2688100005054147</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.378371198672858</v>
+        <v>0.3744542175379331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>97</v>
@@ -1046,19 +1046,19 @@
         <v>58756</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48248</v>
+        <v>48379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>71283</v>
+        <v>71500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1859019035421102</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1526540089112532</v>
+        <v>0.1530696040464776</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2255357601963187</v>
+        <v>0.2262224905172201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>204</v>
@@ -1067,19 +1067,19 @@
         <v>162255</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142063</v>
+        <v>142298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>182787</v>
+        <v>184278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2555579708017294</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2237537204641576</v>
+        <v>0.2241244633669046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.287895779014287</v>
+        <v>0.2902442495393084</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>9666</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5032</v>
+        <v>4601</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17921</v>
+        <v>17191</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03031415694490977</v>
+        <v>0.03031415694490978</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01578045811993825</v>
+        <v>0.01443077399068991</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05620608711941614</v>
+        <v>0.05391683468169852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1117,19 +1117,19 @@
         <v>3583</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1495</v>
+        <v>1446</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8294</v>
+        <v>8581</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01133511568354692</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004728635294212247</v>
+        <v>0.00457604187479496</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02624179706878141</v>
+        <v>0.02715058683493672</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -1138,19 +1138,19 @@
         <v>13248</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7417</v>
+        <v>7488</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21552</v>
+        <v>21252</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02086625646593872</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01168129818782581</v>
+        <v>0.01179360752647136</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03394547430505269</v>
+        <v>0.03347298137798929</v>
       </c>
     </row>
     <row r="10">
@@ -1170,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5156</v>
+        <v>6195</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.005230073927912461</v>
+        <v>0.005230073927912462</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01617159636550553</v>
+        <v>0.0194285933292104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3060</v>
+        <v>3132</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001616657835146737</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009681994773115939</v>
+        <v>0.0099093671165337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1209,19 +1209,19 @@
         <v>2179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5953</v>
+        <v>6204</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003431289934378348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0008074214114700092</v>
+        <v>0.0007923355941822234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009376163760125112</v>
+        <v>0.00977190117717611</v>
       </c>
     </row>
     <row r="11">
@@ -1238,19 +1238,19 @@
         <v>4632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1490</v>
+        <v>1519</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10808</v>
+        <v>11899</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01452676260422746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004671718377092487</v>
+        <v>0.004765367583401632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03389682973813262</v>
+        <v>0.03731850899808718</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1259,19 +1259,19 @@
         <v>1706</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>361</v>
+        <v>490</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4601</v>
+        <v>5001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005397914102524921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001142309236024717</v>
+        <v>0.001550538256931629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01455880571126291</v>
+        <v>0.01582415400740246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1280,19 +1280,19 @@
         <v>6338</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2900</v>
+        <v>3076</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13734</v>
+        <v>14370</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009982357492085554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0045683587677032</v>
+        <v>0.004844899877899275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0216317176847747</v>
+        <v>0.02263260992746442</v>
       </c>
     </row>
     <row r="12">
@@ -1309,19 +1309,19 @@
         <v>38150</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28338</v>
+        <v>28952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49017</v>
+        <v>50183</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1196513716871213</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08887792536552544</v>
+        <v>0.09080393814371671</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1537326495116596</v>
+        <v>0.1573913496065889</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1330,19 +1330,19 @@
         <v>5456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2526</v>
+        <v>2754</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10344</v>
+        <v>9978</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01726313297794895</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007993488276310025</v>
+        <v>0.008712705314184797</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03272923031179956</v>
+        <v>0.03157015346143366</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -1351,19 +1351,19 @@
         <v>43606</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33069</v>
+        <v>33189</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56598</v>
+        <v>54925</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06868178496143611</v>
+        <v>0.06868178496143609</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05208463197332755</v>
+        <v>0.05227407670888809</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08914436711974374</v>
+        <v>0.08650832067139602</v>
       </c>
     </row>
     <row r="13">
@@ -1455,19 +1455,19 @@
         <v>86060</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66709</v>
+        <v>68951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108578</v>
+        <v>109736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1628733091257042</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.126250462851316</v>
+        <v>0.1304927412454599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2054878842840562</v>
+        <v>0.2076794205111936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -1476,19 +1476,19 @@
         <v>213250</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>192908</v>
+        <v>194720</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>233354</v>
+        <v>233909</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.390652153011903</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3533867138840486</v>
+        <v>0.3567058394943921</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4274799426281972</v>
+        <v>0.4284962281589134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>366</v>
@@ -1497,19 +1497,19 @@
         <v>299311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>271443</v>
+        <v>271513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331705</v>
+        <v>329354</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2786173577639199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2526765298759333</v>
+        <v>0.2527416805263418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3087723550956805</v>
+        <v>0.3065833475056932</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>42905</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30221</v>
+        <v>30708</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>60912</v>
+        <v>59396</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08119936411425796</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0571949340140431</v>
+        <v>0.05811631466512408</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1152778672884373</v>
+        <v>0.1124101296286912</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>74</v>
@@ -1547,19 +1547,19 @@
         <v>53994</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>42365</v>
+        <v>42521</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>67173</v>
+        <v>67681</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09891102616240811</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07760753796196161</v>
+        <v>0.07789320275032288</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1230546704162751</v>
+        <v>0.1239844601589098</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>109</v>
@@ -1568,19 +1568,19 @@
         <v>96899</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>80120</v>
+        <v>80736</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>118844</v>
+        <v>120047</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09019940748346983</v>
+        <v>0.09019940748346984</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07458086458805065</v>
+        <v>0.07515373044020075</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1106271405212656</v>
+        <v>0.1117474129074898</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>86356</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68405</v>
+        <v>66778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110117</v>
+        <v>108646</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1634328512944988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.129459781169296</v>
+        <v>0.1263813209702056</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2084018662267947</v>
+        <v>0.2056181399613531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -1618,19 +1618,19 @@
         <v>109110</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94153</v>
+        <v>92368</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>127908</v>
+        <v>126934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1998778169624352</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1724787817545487</v>
+        <v>0.1692091372839017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2343136937361333</v>
+        <v>0.2325290655530735</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>205</v>
@@ -1639,19 +1639,19 @@
         <v>195466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>171981</v>
+        <v>171785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226360</v>
+        <v>223507</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1819520772547256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1600903952053077</v>
+        <v>0.159908078485119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2107098775550028</v>
+        <v>0.2080543027437252</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>149710</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122470</v>
+        <v>123531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>180655</v>
+        <v>178275</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2833338214824969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2317798499389886</v>
+        <v>0.2337873548675298</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3418978672806834</v>
+        <v>0.3373927228998125</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -1689,19 +1689,19 @@
         <v>104345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88127</v>
+        <v>89021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>123794</v>
+        <v>124285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1911484042996323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1614400978068091</v>
+        <v>0.1630777473250115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2267781415249593</v>
+        <v>0.2276768137634917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -1710,19 +1710,19 @@
         <v>254055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>223581</v>
+        <v>219419</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>290593</v>
+        <v>287754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2364905184429991</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.208122892828377</v>
+        <v>0.2042492169683124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2705022441464366</v>
+        <v>0.2678596207669776</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>98931</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78316</v>
+        <v>77701</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123751</v>
+        <v>124311</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1872306636582307</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1482172881185509</v>
+        <v>0.1470535298518421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2342046127412789</v>
+        <v>0.235264692942888</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -1760,19 +1760,19 @@
         <v>50097</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38698</v>
+        <v>38971</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62587</v>
+        <v>64701</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09177324403465006</v>
+        <v>0.09177324403465008</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07089079790035228</v>
+        <v>0.07139090113791131</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1146532366462639</v>
+        <v>0.1185246078765737</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>130</v>
@@ -1781,19 +1781,19 @@
         <v>149028</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>124609</v>
+        <v>123915</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>177037</v>
+        <v>174750</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1387247180168949</v>
+        <v>0.1387247180168948</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1159936498690859</v>
+        <v>0.1153481322300823</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1647974057131466</v>
+        <v>0.1626679244250889</v>
       </c>
     </row>
     <row r="19">
@@ -1810,19 +1810,19 @@
         <v>27939</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17909</v>
+        <v>17699</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40846</v>
+        <v>40897</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05287497546943763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03389420346778812</v>
+        <v>0.03349584158456051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07730308076782495</v>
+        <v>0.0774002008494289</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1831,19 +1831,19 @@
         <v>6774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2662</v>
+        <v>2624</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18246</v>
+        <v>19083</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01240885692064674</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004877258674097423</v>
+        <v>0.004807217652404694</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03342536561279578</v>
+        <v>0.03495857476359267</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -1852,19 +1852,19 @@
         <v>34712</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23416</v>
+        <v>23482</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50207</v>
+        <v>51061</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03231243193553903</v>
+        <v>0.03231243193553902</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02179730852216836</v>
+        <v>0.02185812483152367</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04673562880556564</v>
+        <v>0.04753122781829649</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>4847</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1366</v>
+        <v>1605</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11519</v>
+        <v>12448</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.009173219633582067</v>
+        <v>0.009173219633582065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002584986209235784</v>
+        <v>0.003037846256410637</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02179958667131692</v>
+        <v>0.02355785764476249</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1902,19 +1902,19 @@
         <v>4444</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1926</v>
+        <v>1856</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9195</v>
+        <v>8741</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.008140206726883264</v>
+        <v>0.008140206726883262</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00352858721195016</v>
+        <v>0.003400093755977668</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01684373550649903</v>
+        <v>0.01601218273076979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1923,19 +1923,19 @@
         <v>9291</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4677</v>
+        <v>4848</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16638</v>
+        <v>17367</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008648302156274178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004353752534561797</v>
+        <v>0.004512502694198722</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01548734245657941</v>
+        <v>0.01616675227624375</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>12151</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6318</v>
+        <v>6576</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21199</v>
+        <v>22439</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0229970355916099</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0119576524002744</v>
+        <v>0.01244569280061298</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04011929326138395</v>
+        <v>0.0424660967538792</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5086</v>
+        <v>4459</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002688261365108541</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.009317807152354004</v>
+        <v>0.008167842267714791</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -1994,19 +1994,19 @@
         <v>13619</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7239</v>
+        <v>7162</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23167</v>
+        <v>22993</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01267728986039917</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006738851295135051</v>
+        <v>0.00666724736114293</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02156566983797493</v>
+        <v>0.02140322443596212</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>19490</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11586</v>
+        <v>12160</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31109</v>
+        <v>31647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03688475963018178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0219262370893608</v>
+        <v>0.02301407546441139</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05887510425223492</v>
+        <v>0.05989341581235348</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2044,19 +2044,19 @@
         <v>2402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5579</v>
+        <v>5998</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004400030516332754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001102168799400454</v>
+        <v>0.001107518228715211</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01022013361416137</v>
+        <v>0.01098680906395308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2065,19 +2065,19 @@
         <v>21891</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14084</v>
+        <v>13402</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32586</v>
+        <v>32962</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02037789708577838</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01311024286615338</v>
+        <v>0.01247556620261299</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03033348046028849</v>
+        <v>0.03068331378138311</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>32121</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22755</v>
+        <v>22768</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44007</v>
+        <v>44699</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1016512207813447</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07200968710479955</v>
+        <v>0.07205121530604461</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1392666214313332</v>
+        <v>0.1414559198317663</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>181</v>
@@ -2190,19 +2190,19 @@
         <v>114723</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>100573</v>
+        <v>100511</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>128866</v>
+        <v>131025</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.321911400084341</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2822066300920558</v>
+        <v>0.2820319366087853</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3615959944024946</v>
+        <v>0.3676535743591187</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>218</v>
@@ -2211,19 +2211,19 @@
         <v>146844</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>129336</v>
+        <v>129080</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>165710</v>
+        <v>166567</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2183965562271067</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.19235628105979</v>
+        <v>0.1919769291028724</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2464542059715206</v>
+        <v>0.2477297846407096</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>56655</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44979</v>
+        <v>44382</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69379</v>
+        <v>70828</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1792909813733976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.142342603150794</v>
+        <v>0.1404519416815615</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2195572039552303</v>
+        <v>0.2241451237828573</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>133</v>
@@ -2261,19 +2261,19 @@
         <v>86438</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72534</v>
+        <v>72807</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98702</v>
+        <v>99629</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2425439472024452</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.20352992440743</v>
+        <v>0.2042951780919634</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2769571773289213</v>
+        <v>0.2795574636178891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>202</v>
@@ -2282,19 +2282,19 @@
         <v>143093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124339</v>
+        <v>124581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>163142</v>
+        <v>163227</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2128171899555362</v>
+        <v>0.2128171899555361</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1849256966607638</v>
+        <v>0.1852849151512474</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2426352622273823</v>
+        <v>0.2427614528708015</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>32725</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22660</v>
+        <v>22936</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44544</v>
+        <v>45359</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1035626772472246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07171077102072808</v>
+        <v>0.07258460187970565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1409638968840159</v>
+        <v>0.1435445801878127</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -2332,19 +2332,19 @@
         <v>44995</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35483</v>
+        <v>35873</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55661</v>
+        <v>56712</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1262564174844148</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09956455774897072</v>
+        <v>0.1006604868453071</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1561828475234691</v>
+        <v>0.1591333222837081</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>100</v>
@@ -2353,19 +2353,19 @@
         <v>77721</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62955</v>
+        <v>63229</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>93086</v>
+        <v>93396</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1155911261701921</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0936303345982066</v>
+        <v>0.09403887255781074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1384435854200127</v>
+        <v>0.138903947962328</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>45382</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>33238</v>
+        <v>34405</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>58572</v>
+        <v>59719</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1436161525037375</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1051845249193543</v>
+        <v>0.1088786591332131</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1853572899393</v>
+        <v>0.1889884663224922</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>74</v>
@@ -2403,19 +2403,19 @@
         <v>57046</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>45980</v>
+        <v>44746</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>70257</v>
+        <v>68968</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1600710740864624</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1290196414704894</v>
+        <v>0.125557002456646</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1971413796263863</v>
+        <v>0.1935230308340272</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>119</v>
@@ -2424,19 +2424,19 @@
         <v>102428</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>83922</v>
+        <v>85393</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>119521</v>
+        <v>122095</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1523378167917989</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1248148148207996</v>
+        <v>0.1270019855106816</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1777599423920503</v>
+        <v>0.1815873384933127</v>
       </c>
     </row>
     <row r="28">
@@ -2453,19 +2453,19 @@
         <v>65580</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52165</v>
+        <v>51279</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>82004</v>
+        <v>81248</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2075377031655688</v>
+        <v>0.2075377031655687</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1650830250329061</v>
+        <v>0.1622774216373879</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2595136149046095</v>
+        <v>0.257119992070787</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -2474,19 +2474,19 @@
         <v>36401</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26937</v>
+        <v>26381</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48061</v>
+        <v>46823</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1021411745813646</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07558509317207612</v>
+        <v>0.07402456829107522</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1348590232218687</v>
+        <v>0.1313836223453766</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>115</v>
@@ -2495,19 +2495,19 @@
         <v>101982</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>85351</v>
+        <v>86521</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>123030</v>
+        <v>120414</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.151673982708612</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1269393236912898</v>
+        <v>0.1286802151358053</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1829777596404165</v>
+        <v>0.1790881386315016</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>12140</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6584</v>
+        <v>6974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20521</v>
+        <v>20149</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03841783262714993</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02083651469891907</v>
+        <v>0.02206927281198691</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06493992413714988</v>
+        <v>0.06376481090047253</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2545,19 +2545,19 @@
         <v>2432</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5704</v>
+        <v>5815</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006825310490856037</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001772804025612903</v>
+        <v>0.001801454896442747</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01600639289017502</v>
+        <v>0.01631710353287162</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -2566,19 +2566,19 @@
         <v>14572</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8643</v>
+        <v>8916</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23761</v>
+        <v>22948</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02167272869574167</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01285465259337547</v>
+        <v>0.01325975136705496</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0353388710702771</v>
+        <v>0.03412994224266698</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>6718</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3151</v>
+        <v>2978</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12733</v>
+        <v>13059</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02125928363338533</v>
+        <v>0.02125928363338532</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009972209000460856</v>
+        <v>0.009424829601899878</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04029572793304097</v>
+        <v>0.04132564542142816</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2616,19 +2616,19 @@
         <v>2075</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4688</v>
+        <v>5129</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005822765076393548</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001578029407734548</v>
+        <v>0.001540705497523269</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01315519298325251</v>
+        <v>0.01439158758672592</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -2637,19 +2637,19 @@
         <v>8793</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4638</v>
+        <v>4895</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15229</v>
+        <v>15550</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.01307740735073845</v>
+        <v>0.01307740735073844</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006898115605407828</v>
+        <v>0.00727964006407042</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02265001793953822</v>
+        <v>0.02312662887496057</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>10412</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5800</v>
+        <v>5782</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16840</v>
+        <v>17384</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03295097928992016</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01835500793787644</v>
+        <v>0.0182972840140098</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05329321471632814</v>
+        <v>0.05501487495771108</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2687,19 +2687,19 @@
         <v>1747</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4362</v>
+        <v>4741</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004900899197070818</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001570085580096768</v>
+        <v>0.001581580753855091</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01224077572430451</v>
+        <v>0.01330456795214155</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -2708,19 +2708,19 @@
         <v>12159</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7319</v>
+        <v>7052</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19120</v>
+        <v>19827</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.018083489305653</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01088600107817073</v>
+        <v>0.01048893332108328</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02843644072482847</v>
+        <v>0.02948845755614742</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>54260</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44825</v>
+        <v>43909</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>66600</v>
+        <v>67656</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1717131693782714</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1418541022726366</v>
+        <v>0.1389568965156045</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2107657055148366</v>
+        <v>0.2141044936384313</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2758,19 +2758,19 @@
         <v>10523</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6389</v>
+        <v>6643</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16462</v>
+        <v>16681</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02952701179665164</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01792756696099254</v>
+        <v>0.01863945055647223</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04619111852321264</v>
+        <v>0.04680676430525964</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>96</v>
@@ -2779,19 +2779,19 @@
         <v>64783</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>52464</v>
+        <v>52693</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77733</v>
+        <v>77972</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.09634970279462117</v>
+        <v>0.09634970279462116</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07802791127285162</v>
+        <v>0.07836891765993506</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.115609010903606</v>
+        <v>0.1159654403850654</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>70656</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>52081</v>
+        <v>51679</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>95171</v>
+        <v>95132</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1893539679183864</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1395736124058439</v>
+        <v>0.1384961630981722</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2550501506564475</v>
+        <v>0.2549459722928082</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>251</v>
@@ -2904,19 +2904,19 @@
         <v>158702</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>140974</v>
+        <v>141854</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>179718</v>
+        <v>180802</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3761049126976578</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3340923535452531</v>
+        <v>0.3361781298890127</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4259121894898074</v>
+        <v>0.4284810007083358</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>301</v>
@@ -2925,19 +2925,19 @@
         <v>229358</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>201841</v>
+        <v>202046</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>261660</v>
+        <v>259280</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2884622990056602</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.253854361829512</v>
+        <v>0.2541119644868429</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3290878783728385</v>
+        <v>0.3260942329850793</v>
       </c>
     </row>
     <row r="35">
@@ -2957,16 +2957,16 @@
         <v>26540</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>54600</v>
+        <v>54520</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1051334479771628</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07112616560591144</v>
+        <v>0.07112557571428414</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1463247390827465</v>
+        <v>0.1461086815143074</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>54</v>
@@ -2975,19 +2975,19 @@
         <v>36492</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>26678</v>
+        <v>26522</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>48970</v>
+        <v>47813</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.08648086138321136</v>
+        <v>0.08648086138321137</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06322482506670039</v>
+        <v>0.06285342945621228</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1160535107562817</v>
+        <v>0.1133125033380582</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>90</v>
@@ -2996,19 +2996,19 @@
         <v>75722</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>59793</v>
+        <v>59278</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>93644</v>
+        <v>93883</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.09523455975481751</v>
+        <v>0.09523455975481747</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07520153594842388</v>
+        <v>0.07455348464857196</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1177749966481823</v>
+        <v>0.1180756106304444</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>37576</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22312</v>
+        <v>23424</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>54986</v>
+        <v>54797</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1007006705420895</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05979386857627688</v>
+        <v>0.06277355562891243</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1473576525439177</v>
+        <v>0.1468524285157176</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>86</v>
@@ -3046,19 +3046,19 @@
         <v>67126</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>53721</v>
+        <v>53535</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>84631</v>
+        <v>83148</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1590821401056038</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1273120024721227</v>
+        <v>0.1268719137779605</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2005658256071281</v>
+        <v>0.1970511650833601</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>115</v>
@@ -3067,19 +3067,19 @@
         <v>104703</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>83630</v>
+        <v>86211</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>126775</v>
+        <v>128416</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1316835928598384</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1051810386788939</v>
+        <v>0.1084270437650636</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.159444575599114</v>
+        <v>0.1615072754783457</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>57462</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>39020</v>
+        <v>39976</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>84678</v>
+        <v>85127</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1539946212561322</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1045693309983112</v>
+        <v>0.1071332328927213</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2269312491816186</v>
+        <v>0.2281342179987128</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>72</v>
@@ -3117,19 +3117,19 @@
         <v>58594</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45865</v>
+        <v>45345</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>74256</v>
+        <v>73314</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1388622654850486</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.108694114719128</v>
+        <v>0.1074627259862516</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1759777835531574</v>
+        <v>0.1737466089363259</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>105</v>
@@ -3138,19 +3138,19 @@
         <v>116057</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>95045</v>
+        <v>93218</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>144759</v>
+        <v>145367</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1459639120799961</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1195377228775552</v>
+        <v>0.1172393082987689</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1820621467782163</v>
+        <v>0.1828263896753418</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>85686</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>64686</v>
+        <v>64696</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>108762</v>
+        <v>107584</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2296310214349629</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1733540658972381</v>
+        <v>0.1733805178284651</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2914738012700561</v>
+        <v>0.288318013934192</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>92</v>
@@ -3188,19 +3188,19 @@
         <v>73615</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>59032</v>
+        <v>58706</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>89683</v>
+        <v>90609</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1744581498078238</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1398983286920595</v>
+        <v>0.1391264858916978</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2125376396400073</v>
+        <v>0.2147342244353639</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>152</v>
@@ -3209,19 +3209,19 @@
         <v>159300</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>134578</v>
+        <v>135452</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>187172</v>
+        <v>186729</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.2003508952502139</v>
+        <v>0.2003508952502138</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1692578578532597</v>
+        <v>0.1703572951068083</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2354044862313636</v>
+        <v>0.2348470756240193</v>
       </c>
     </row>
     <row r="39">
@@ -3238,19 +3238,19 @@
         <v>11855</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>6089</v>
+        <v>5940</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>20186</v>
+        <v>20360</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03177106537767822</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01631923178120225</v>
+        <v>0.01591878511102321</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05409811146538172</v>
+        <v>0.05456227183033185</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>11</v>
@@ -3259,19 +3259,19 @@
         <v>7191</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3871</v>
+        <v>3622</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12632</v>
+        <v>12833</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.01704186700645381</v>
+        <v>0.01704186700645382</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.009174911228737035</v>
+        <v>0.008583148281869154</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02993534484196685</v>
+        <v>0.03041203766804964</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>23</v>
@@ -3280,19 +3280,19 @@
         <v>19046</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>11898</v>
+        <v>12081</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>28523</v>
+        <v>29226</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.02395431098025964</v>
+        <v>0.02395431098025963</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01496378696987627</v>
+        <v>0.01519457608863392</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03587286160497151</v>
+        <v>0.0367576455719698</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>5337</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15878</v>
+        <v>17142</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01430347905114772</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001578385796880287</v>
+        <v>0.001645334020676655</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04255210581612226</v>
+        <v>0.04593964369962937</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3330,19 +3330,19 @@
         <v>4420</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1427</v>
+        <v>1366</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10925</v>
+        <v>10536</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.01047466688660552</v>
+        <v>0.01047466688660551</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003380812955430411</v>
+        <v>0.003236109172473948</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02589095670328449</v>
+        <v>0.02496881332994804</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -3351,19 +3351,19 @@
         <v>9757</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4034</v>
+        <v>4117</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20780</v>
+        <v>21095</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0122715365401048</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005073151325562425</v>
+        <v>0.005177300767907662</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02613428982163166</v>
+        <v>0.02653114118348756</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>3948</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1283</v>
+        <v>1763</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7717</v>
+        <v>8647</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01058166679931903</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003437325874141413</v>
+        <v>0.004723998794793292</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02068003489469904</v>
+        <v>0.02317361808665288</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3414,19 +3414,19 @@
         <v>3949</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1771</v>
+        <v>1254</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9081</v>
+        <v>8136</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00496599862777825</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002227260555818292</v>
+        <v>0.001577220614408039</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01142084556332589</v>
+        <v>0.01023299838101447</v>
       </c>
     </row>
     <row r="42">
@@ -3443,19 +3443,19 @@
         <v>61394</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>48750</v>
+        <v>47127</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>79093</v>
+        <v>76634</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.1645300596431214</v>
+        <v>0.1645300596431215</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1306467452477692</v>
+        <v>0.1262960339389659</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2119634856491595</v>
+        <v>0.2053735843697242</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>28</v>
@@ -3464,19 +3464,19 @@
         <v>15821</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10436</v>
+        <v>10758</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22606</v>
+        <v>23229</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03749513662759547</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02473309777637</v>
+        <v>0.02549441190658376</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0535735758397027</v>
+        <v>0.05505122680855032</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>91</v>
@@ -3485,19 +3485,19 @@
         <v>77215</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>62086</v>
+        <v>61481</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>95387</v>
+        <v>96274</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.09711289490133128</v>
+        <v>0.09711289490133126</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07808563088616391</v>
+        <v>0.07732457452046855</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.119967935879913</v>
+        <v>0.1210826905045759</v>
       </c>
     </row>
     <row r="43">
@@ -3589,19 +3589,19 @@
         <v>123963</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>113185</v>
+        <v>111694</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>137731</v>
+        <v>136414</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.6027440689980219</v>
+        <v>0.602744068998022</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5503384834574599</v>
+        <v>0.5430858015376716</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6696869675161958</v>
+        <v>0.6632827038354268</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>375</v>
@@ -3610,19 +3610,19 @@
         <v>172372</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>162687</v>
+        <v>161805</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>180621</v>
+        <v>181348</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7586298250372489</v>
+        <v>0.7586298250372486</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.716005538064454</v>
+        <v>0.7121207574800323</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7949347335550478</v>
+        <v>0.7981323588246034</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>543</v>
@@ -3631,19 +3631,19 @@
         <v>296335</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>280026</v>
+        <v>279018</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>312450</v>
+        <v>310485</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.6845671665800555</v>
+        <v>0.6845671665800557</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6468916331042012</v>
+        <v>0.6445634179444609</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7217945065824752</v>
+        <v>0.7172547138667998</v>
       </c>
     </row>
     <row r="45">
@@ -3660,19 +3660,19 @@
         <v>30925</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>22154</v>
+        <v>22748</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>41442</v>
+        <v>40394</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1503650761811402</v>
+        <v>0.1503650761811401</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1077166761887554</v>
+        <v>0.1106050447855643</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2015037420426969</v>
+        <v>0.196408946026311</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>61</v>
@@ -3681,19 +3681,19 @@
         <v>28166</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>22008</v>
+        <v>22184</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>35937</v>
+        <v>36543</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.1239609570240602</v>
+        <v>0.1239609570240601</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.09686153686447949</v>
+        <v>0.09763228748641722</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1581626993082008</v>
+        <v>0.1608299752144414</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>102</v>
@@ -3702,19 +3702,19 @@
         <v>59090</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>47348</v>
+        <v>48430</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>69911</v>
+        <v>72647</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1365057802887448</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1093802491429063</v>
+        <v>0.1118790067749227</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1615018041736497</v>
+        <v>0.1678225523591111</v>
       </c>
     </row>
     <row r="46">
@@ -3731,19 +3731,19 @@
         <v>12300</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7402</v>
+        <v>7390</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>18833</v>
+        <v>19136</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.05980810601443413</v>
+        <v>0.05980810601443414</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0359896518529227</v>
+        <v>0.03593042401017977</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09157113017050239</v>
+        <v>0.093044963177732</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>28</v>
@@ -3755,16 +3755,16 @@
         <v>7530</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>15592</v>
+        <v>15167</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.04884852624647622</v>
+        <v>0.04884852624647621</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03313896469103543</v>
+        <v>0.03313864389811406</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06862184321183552</v>
+        <v>0.06675194505297417</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>46</v>
@@ -3773,19 +3773,19 @@
         <v>23399</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>17275</v>
+        <v>17708</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>31356</v>
+        <v>31201</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.05405551650531924</v>
+        <v>0.05405551650531923</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03990670540363123</v>
+        <v>0.04090831999847312</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.07243483368670608</v>
+        <v>0.0720778781077324</v>
       </c>
     </row>
     <row r="47">
@@ -3802,19 +3802,19 @@
         <v>7776</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4262</v>
+        <v>3828</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>13444</v>
+        <v>12907</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03781025083639052</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02072354555176731</v>
+        <v>0.018610492767092</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06536730820225738</v>
+        <v>0.06275782181142177</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -3823,19 +3823,19 @@
         <v>6580</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2783</v>
+        <v>3380</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>13083</v>
+        <v>14086</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.02896041759053813</v>
+        <v>0.02896041759053812</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01224619134317912</v>
+        <v>0.01487703938349865</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05757810368514239</v>
+        <v>0.06199275817325475</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>21</v>
@@ -3844,19 +3844,19 @@
         <v>14356</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9183</v>
+        <v>8780</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>22947</v>
+        <v>23006</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03316504919860978</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02121277196795625</v>
+        <v>0.02028295271158278</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05300936556520178</v>
+        <v>0.05314743725063978</v>
       </c>
     </row>
     <row r="48">
@@ -3873,19 +3873,19 @@
         <v>5506</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1980</v>
+        <v>2077</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>13371</v>
+        <v>12610</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02677047317541528</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.009629097680289207</v>
+        <v>0.01010060933098482</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.06501381617480829</v>
+        <v>0.06131130634845939</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>5</v>
@@ -3894,19 +3894,19 @@
         <v>2822</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>887</v>
+        <v>858</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>6744</v>
+        <v>6691</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01242050690231431</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.003903158777383705</v>
+        <v>0.003774642028520663</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02968110493321767</v>
+        <v>0.02944664612991111</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>11</v>
@@ -3915,19 +3915,19 @@
         <v>8328</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>4377</v>
+        <v>4109</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>16342</v>
+        <v>16442</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01923829884149238</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01011039688592563</v>
+        <v>0.009491578246959186</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03775209265971437</v>
+        <v>0.0379830776250619</v>
       </c>
     </row>
     <row r="49">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>4424</v>
+        <v>4438</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.006896184628922463</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02150912874660265</v>
+        <v>0.02157882725609154</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>2453</v>
+        <v>2392</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.002134844630630769</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01079556121932753</v>
+        <v>0.01052945487443644</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>3</v>
@@ -3986,19 +3986,19 @@
         <v>1903</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>5019</v>
+        <v>5356</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.004396998063066981</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001107222099509504</v>
+        <v>0.001120485964929453</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01159485868824129</v>
+        <v>0.0123726185743317</v>
       </c>
     </row>
     <row r="50">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>3528</v>
+        <v>3581</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.003542965974221788</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01715482077722728</v>
+        <v>0.01741115153533418</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>2823</v>
+        <v>2947</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.003755729620468645</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01242343917692446</v>
+        <v>0.01296996440124258</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3</v>
@@ -4057,19 +4057,19 @@
         <v>1582</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5009</v>
+        <v>4964</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.003654643788995225</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0008966726048081157</v>
+        <v>0.0008793016722304257</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01157050861867315</v>
+        <v>0.01146809718032187</v>
       </c>
     </row>
     <row r="51">
@@ -4086,19 +4086,19 @@
         <v>1829</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>4873</v>
+        <v>5466</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.008891616635570228</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.002386928240347976</v>
+        <v>0.002470547669542141</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02369400873480036</v>
+        <v>0.02657524468594691</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>2</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>2919</v>
+        <v>2892</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.003876197362794531</v>
+        <v>0.00387619736279453</v>
       </c>
       <c r="O51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01284552515182072</v>
+        <v>0.0127294399164989</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>5</v>
@@ -4128,19 +4128,19 @@
         <v>2709</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>964</v>
+        <v>1003</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>6845</v>
+        <v>6835</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.006259066035707396</v>
+        <v>0.006259066035707397</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.002227770016015588</v>
+        <v>0.002316230914601828</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01581278694762817</v>
+        <v>0.01578880644439862</v>
       </c>
     </row>
     <row r="52">
@@ -4157,19 +4157,19 @@
         <v>21219</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>13848</v>
+        <v>14061</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>28742</v>
+        <v>29751</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1031712575558834</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.06733088595123222</v>
+        <v>0.06836785255177179</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1397535837199044</v>
+        <v>0.1446558838745374</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>8</v>
@@ -4178,19 +4178,19 @@
         <v>3956</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1786</v>
+        <v>1853</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>7910</v>
+        <v>8224</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.01741299558546848</v>
+        <v>0.01741299558546847</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.007859778183963001</v>
+        <v>0.008155140034289665</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.03481430425996374</v>
+        <v>0.03619356147412153</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>37</v>
@@ -4199,19 +4199,19 @@
         <v>25175</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>17873</v>
+        <v>18228</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>34885</v>
+        <v>34778</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.05815748069800866</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.04128974364696419</v>
+        <v>0.04210766696050001</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08058773341637074</v>
+        <v>0.08034060654515685</v>
       </c>
     </row>
     <row r="53">
@@ -4303,19 +4303,19 @@
         <v>35199</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>26081</v>
+        <v>26404</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>46137</v>
+        <v>45210</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1303883022014317</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.09661266348039715</v>
+        <v>0.09780743456387948</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1709050752464422</v>
+        <v>0.167471260818661</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>156</v>
@@ -4324,19 +4324,19 @@
         <v>78412</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>67208</v>
+        <v>67602</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>90635</v>
+        <v>91047</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.297296746082707</v>
+        <v>0.2972967460827068</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2548159542065933</v>
+        <v>0.2563120051876153</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3436414927917789</v>
+        <v>0.3452009361076512</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>206</v>
@@ -4345,19 +4345,19 @@
         <v>113611</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>98678</v>
+        <v>98879</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>129412</v>
+        <v>130065</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2128725352024962</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1848930134158846</v>
+        <v>0.1852690742193154</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2424789616813695</v>
+        <v>0.2437019108077986</v>
       </c>
     </row>
     <row r="55">
@@ -4374,19 +4374,19 @@
         <v>52238</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>41347</v>
+        <v>41931</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>63548</v>
+        <v>63603</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1935077980775519</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.153164271653158</v>
+        <v>0.1553263517789515</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2354020197464976</v>
+        <v>0.2356078425384587</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>118</v>
@@ -4395,19 +4395,19 @@
         <v>62987</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>52734</v>
+        <v>52199</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>74790</v>
+        <v>73530</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.238812381664988</v>
+        <v>0.2388123816649879</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.199939161476677</v>
+        <v>0.1979090781035623</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2835632108693458</v>
+        <v>0.2787849076737711</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>202</v>
@@ -4416,19 +4416,19 @@
         <v>115225</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>101577</v>
+        <v>100560</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>131520</v>
+        <v>129654</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2158968021431605</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1903238663696406</v>
+        <v>0.1884193699600381</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2464292135733809</v>
+        <v>0.242931552943069</v>
       </c>
     </row>
     <row r="56">
@@ -4445,19 +4445,19 @@
         <v>10835</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>6119</v>
+        <v>6353</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>17989</v>
+        <v>18065</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.04013665513014106</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02266524667843315</v>
+        <v>0.02353410131112443</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0666386339151554</v>
+        <v>0.06691876116956855</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>27</v>
@@ -4466,19 +4466,19 @@
         <v>15911</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>10721</v>
+        <v>10503</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>22634</v>
+        <v>23593</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.06032706565449993</v>
+        <v>0.0603270656544999</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.04064651824131171</v>
+        <v>0.03982037829879883</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.08581545745802578</v>
+        <v>0.08945369033516948</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>42</v>
@@ -4487,19 +4487,19 @@
         <v>26746</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>19379</v>
+        <v>19309</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>36001</v>
+        <v>35394</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.05011452375890246</v>
+        <v>0.05011452375890247</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.03630994431286742</v>
+        <v>0.03617832776461455</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.06745521088975358</v>
+        <v>0.06631819005554254</v>
       </c>
     </row>
     <row r="57">
@@ -4516,19 +4516,19 @@
         <v>35087</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>26164</v>
+        <v>25091</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>46475</v>
+        <v>46531</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.1299733799866805</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.09692105386133075</v>
+        <v>0.09294680377011395</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1721601474062712</v>
+        <v>0.1723651092066652</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>56</v>
@@ -4537,19 +4537,19 @@
         <v>41507</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>32442</v>
+        <v>32125</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>52543</v>
+        <v>52257</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.1573726656271568</v>
+        <v>0.1573726656271567</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.1230023083303015</v>
+        <v>0.1218020439562889</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.199214641233956</v>
+        <v>0.1981311183872317</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>95</v>
@@ -4558,19 +4558,19 @@
         <v>76594</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>61571</v>
+        <v>61997</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>92472</v>
+        <v>91939</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.1435137917733924</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.1153654875953949</v>
+        <v>0.1161636923713346</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1732654924252041</v>
+        <v>0.1722657381052053</v>
       </c>
     </row>
     <row r="58">
@@ -4587,19 +4587,19 @@
         <v>52202</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>39534</v>
+        <v>41292</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>65288</v>
+        <v>65247</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1933734966628291</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1464459038747046</v>
+        <v>0.1529586441568307</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2418469588138424</v>
+        <v>0.2416982890022224</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>64</v>
@@ -4608,19 +4608,19 @@
         <v>43428</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>33419</v>
+        <v>34306</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>54372</v>
+        <v>53062</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.1646565915230295</v>
+        <v>0.1646565915230294</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.1267078553733861</v>
+        <v>0.1300719516050665</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.2061497534369989</v>
+        <v>0.2011822192175728</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>122</v>
@@ -4629,19 +4629,19 @@
         <v>95630</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>80470</v>
+        <v>80164</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>112272</v>
+        <v>112370</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.1791819324762647</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.1507757787680651</v>
+        <v>0.1502023333633572</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.2103636805459521</v>
+        <v>0.2105474501049226</v>
       </c>
     </row>
     <row r="59">
@@ -4658,19 +4658,19 @@
         <v>19349</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>12825</v>
+        <v>12740</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>28372</v>
+        <v>28086</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.07167435551206491</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.04750865230595874</v>
+        <v>0.04719199833918609</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.1051001642389844</v>
+        <v>0.1040384520657246</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>14</v>
@@ -4679,19 +4679,19 @@
         <v>8669</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>4861</v>
+        <v>4359</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>14182</v>
+        <v>13451</v>
       </c>
       <c r="N59" s="6" t="n">
-        <v>0.03286754752519619</v>
+        <v>0.03286754752519618</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.01842909711527824</v>
+        <v>0.01652819857687031</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.05377091238121483</v>
+        <v>0.05099991233379484</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>39</v>
@@ -4700,19 +4700,19 @@
         <v>28018</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>20377</v>
+        <v>20500</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>38054</v>
+        <v>37941</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.05249647740367312</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.03817953306422232</v>
+        <v>0.03841078505320795</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.07130124386667867</v>
+        <v>0.0710896296237659</v>
       </c>
     </row>
     <row r="60">
@@ -4729,19 +4729,19 @@
         <v>8527</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>4176</v>
+        <v>4254</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>15340</v>
+        <v>15897</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.03158699663467464</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.01546764640807502</v>
+        <v>0.01575898028973055</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.05682630682733886</v>
+        <v>0.05888762436092185</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>7</v>
@@ -4750,19 +4750,19 @@
         <v>3832</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>1727</v>
+        <v>1670</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>7901</v>
+        <v>7619</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.01453001513228068</v>
+        <v>0.01453001513228067</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.006546795007522222</v>
+        <v>0.006330162177202536</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.02995493850119262</v>
+        <v>0.0288874267848512</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>17</v>
@@ -4771,19 +4771,19 @@
         <v>12359</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>7276</v>
+        <v>6844</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>20277</v>
+        <v>19816</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.02315763258441074</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.01363389951895987</v>
+        <v>0.01282375934484618</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.03799347634171971</v>
+        <v>0.03712901809970416</v>
       </c>
     </row>
     <row r="61">
@@ -4800,19 +4800,19 @@
         <v>5959</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>3350</v>
+        <v>3129</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>11015</v>
+        <v>11100</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.02207508940237638</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.0124084910020813</v>
+        <v>0.01159030014870801</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.04080204484344667</v>
+        <v>0.04111920733998169</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>6</v>
@@ -4821,19 +4821,19 @@
         <v>2792</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>1266</v>
+        <v>997</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>6017</v>
+        <v>5744</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.01058661958147128</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.004800385361749297</v>
+        <v>0.003778859436073694</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.02281410491115778</v>
+        <v>0.02177634566060608</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>17</v>
@@ -4842,19 +4842,19 @@
         <v>8751</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>5393</v>
+        <v>5017</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>13728</v>
+        <v>13989</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.01639761976993951</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.01010481332336455</v>
+        <v>0.0093995877543074</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.02572120806821019</v>
+        <v>0.02621151242338278</v>
       </c>
     </row>
     <row r="62">
@@ -4871,19 +4871,19 @@
         <v>50558</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>40161</v>
+        <v>40576</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>62243</v>
+        <v>61939</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.1872839263922499</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.1487691349335153</v>
+        <v>0.1503068532423923</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.2305697513990168</v>
+        <v>0.2294411125367588</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>12</v>
@@ -4892,19 +4892,19 @@
         <v>6211</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>3272</v>
+        <v>3240</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>10830</v>
+        <v>10543</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.02355036720867083</v>
+        <v>0.02355036720867082</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.01240514900631721</v>
+        <v>0.01228585795786466</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.04105979166736229</v>
+        <v>0.03997350611406392</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>90</v>
@@ -4913,19 +4913,19 @@
         <v>56769</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>46132</v>
+        <v>45902</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>69401</v>
+        <v>70211</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.1063686848877604</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.0864379694271605</v>
+        <v>0.0860071535792352</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1300361440668334</v>
+        <v>0.131555040603847</v>
       </c>
     </row>
     <row r="63">
@@ -5017,19 +5017,19 @@
         <v>149245</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>123432</v>
+        <v>123658</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>175999</v>
+        <v>177242</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.2086916253740845</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.1725973038623084</v>
+        <v>0.1729129412298829</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.2461027625684811</v>
+        <v>0.2478407921520375</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>311</v>
@@ -5038,19 +5038,19 @@
         <v>242124</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>219660</v>
+        <v>217425</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>267164</v>
+        <v>267893</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.3154208466560499</v>
+        <v>0.3154208466560498</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.2861556989497888</v>
+        <v>0.283244773196117</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.3480408325721231</v>
+        <v>0.3489906390897036</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>432</v>
@@ -5059,19 +5059,19 @@
         <v>391369</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>357644</v>
+        <v>357783</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>429233</v>
+        <v>427918</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.2639448893049149</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.2411999145217523</v>
+        <v>0.2412937521313289</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.2894804054411216</v>
+        <v>0.2885939860031099</v>
       </c>
     </row>
     <row r="65">
@@ -5088,19 +5088,19 @@
         <v>72108</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>56190</v>
+        <v>57176</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>90720</v>
+        <v>93076</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.1008295963245016</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.07857160622122167</v>
+        <v>0.07995017187628302</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.126854774405381</v>
+        <v>0.1301501312609071</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>134</v>
@@ -5109,19 +5109,19 @@
         <v>106859</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>91186</v>
+        <v>91722</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>126624</v>
+        <v>127127</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.1392073017472089</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.1187898940942076</v>
+        <v>0.1194888433775372</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.1649557712310301</v>
+        <v>0.1656114801318393</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>200</v>
@@ -5130,19 +5130,19 @@
         <v>178967</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>157763</v>
+        <v>155447</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>205843</v>
+        <v>204971</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.1206975711987718</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.1063976672946074</v>
+        <v>0.1048355149387811</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.1388236806799701</v>
+        <v>0.1382353425266613</v>
       </c>
     </row>
     <row r="66">
@@ -5159,19 +5159,19 @@
         <v>74809</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>57694</v>
+        <v>57166</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>97389</v>
+        <v>96075</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1046060683803097</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.08067439187891219</v>
+        <v>0.07993662110382063</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1361803333679773</v>
+        <v>0.1343436361967325</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>120</v>
@@ -5180,19 +5180,19 @@
         <v>97546</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>82304</v>
+        <v>79786</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>117806</v>
+        <v>116439</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.1270749952165544</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.1072198523494672</v>
+        <v>0.1039385669542672</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1534682682938922</v>
+        <v>0.1516876432427241</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>180</v>
@@ -5201,19 +5201,19 @@
         <v>172354</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>147585</v>
+        <v>146943</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>202741</v>
+        <v>200113</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.1162381362415162</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.09953311777165674</v>
+        <v>0.09910016974390623</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1367315726554758</v>
+        <v>0.1349588564964991</v>
       </c>
     </row>
     <row r="67">
@@ -5230,19 +5230,19 @@
         <v>124887</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>102618</v>
+        <v>101137</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>152540</v>
+        <v>151393</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.174631071049089</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.1434918904241466</v>
+        <v>0.1414209615748682</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.2132989368382405</v>
+        <v>0.2116957098195863</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>181</v>
@@ -5251,19 +5251,19 @@
         <v>150822</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>130281</v>
+        <v>131100</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>175384</v>
+        <v>172358</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.1964794978837466</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.1697194411144038</v>
+        <v>0.1707867453843491</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.228476143248304</v>
+        <v>0.2245351180901617</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>277</v>
@@ -5272,19 +5272,19 @@
         <v>275709</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>249360</v>
+        <v>245388</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>309150</v>
+        <v>310510</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.1859419086985038</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.168171707705571</v>
+        <v>0.1654932279810606</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.2084951991263279</v>
+        <v>0.2094124480009557</v>
       </c>
     </row>
     <row r="68">
@@ -5301,19 +5301,19 @@
         <v>176881</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>150593</v>
+        <v>149763</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>204728</v>
+        <v>206969</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>0.2473349478742758</v>
+        <v>0.2473349478742757</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.2105772218032827</v>
+        <v>0.2094153062118489</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.2862749727597078</v>
+        <v>0.2894083433277041</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>133</v>
@@ -5322,19 +5322,19 @@
         <v>114341</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>96364</v>
+        <v>97629</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>134280</v>
+        <v>134337</v>
       </c>
       <c r="N68" s="6" t="n">
-        <v>0.1489546526523916</v>
+        <v>0.1489546526523915</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.125535824317743</v>
+        <v>0.1271829469075094</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.1749295210734144</v>
+        <v>0.1750043845288419</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>272</v>
@@ -5343,19 +5343,19 @@
         <v>291222</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>260221</v>
+        <v>257895</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>326020</v>
+        <v>326094</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.1964038874561828</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.175496883684591</v>
+        <v>0.1739282064608787</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.2198725439366569</v>
+        <v>0.2199224168478049</v>
       </c>
     </row>
     <row r="69">
@@ -5372,19 +5372,19 @@
         <v>21264</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>12879</v>
+        <v>12610</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>36790</v>
+        <v>35464</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>0.02973381025264861</v>
+        <v>0.0297338102526486</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.018008995870026</v>
+        <v>0.01763213501769857</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.05144433587279067</v>
+        <v>0.0495901100801935</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>30</v>
@@ -5393,19 +5393,19 @@
         <v>23379</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>15241</v>
+        <v>15681</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>34521</v>
+        <v>33708</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.03045634865482257</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.01985530207621508</v>
+        <v>0.02042778145151193</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.04497162052886642</v>
+        <v>0.04391174389203749</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>47</v>
@@ -5414,19 +5414,19 @@
         <v>44643</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>33232</v>
+        <v>32501</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>64267</v>
+        <v>60530</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.0301078653104477</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.02241191198816884</v>
+        <v>0.02191930580926023</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.04334229739274077</v>
+        <v>0.04082201151584883</v>
       </c>
     </row>
     <row r="70">
@@ -5443,19 +5443,19 @@
         <v>5803</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>2115</v>
+        <v>2506</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>12308</v>
+        <v>12393</v>
       </c>
       <c r="G70" s="6" t="n">
-        <v>0.008114467913891026</v>
+        <v>0.008114467913891024</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.002957489509114167</v>
+        <v>0.003504729847697575</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.01720990217803767</v>
+        <v>0.01732931245818099</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>4</v>
@@ -5464,19 +5464,19 @@
         <v>2752</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>7066</v>
+        <v>6774</v>
       </c>
       <c r="N70" s="6" t="n">
-        <v>0.003585642682708416</v>
+        <v>0.003585642682708415</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.0009199003949317858</v>
+        <v>0.0008983823206046052</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.009204887029064673</v>
+        <v>0.008824896458230517</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>10</v>
@@ -5485,19 +5485,19 @@
         <v>8555</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>4191</v>
+        <v>4401</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>15197</v>
+        <v>15643</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.005769914353118254</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.002826436624428774</v>
+        <v>0.00296810113438304</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.01024890356306283</v>
+        <v>0.01054957451176186</v>
       </c>
     </row>
     <row r="71">
@@ -5514,19 +5514,19 @@
         <v>26408</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>17444</v>
+        <v>17708</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>37370</v>
+        <v>36735</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.03692693506322595</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.0243921633698116</v>
+        <v>0.02476104902569682</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.05225472663915616</v>
+        <v>0.05136661719185391</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>12</v>
@@ -5535,19 +5535,19 @@
         <v>8233</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>4609</v>
+        <v>4685</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>13862</v>
+        <v>14591</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.01072557367967616</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.006004078939637481</v>
+        <v>0.006102850108705858</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.01805880208749239</v>
+        <v>0.01900764458230542</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>40</v>
@@ -5556,19 +5556,19 @@
         <v>34641</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>24892</v>
+        <v>25048</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>46943</v>
+        <v>46682</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.02336260171118478</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.01678719643495448</v>
+        <v>0.01689271517171998</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.03165920969192344</v>
+        <v>0.03148289140610818</v>
       </c>
     </row>
     <row r="72">
@@ -5585,19 +5585,19 @@
         <v>63742</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>49444</v>
+        <v>49752</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>80375</v>
+        <v>82244</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>0.08913147776797391</v>
+        <v>0.08913147776797389</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.06913873148865814</v>
+        <v>0.06956902898767098</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.1123895967902048</v>
+        <v>0.1150037440886973</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>29</v>
@@ -5606,19 +5606,19 @@
         <v>21566</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>14536</v>
+        <v>15199</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>31847</v>
+        <v>32294</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.0280951408268416</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.01893653172588161</v>
+        <v>0.01980021955851268</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.04148831424258835</v>
+        <v>0.04206955834702337</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>91</v>
@@ -5627,19 +5627,19 @@
         <v>85308</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>68149</v>
+        <v>68114</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>106333</v>
+        <v>102951</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.05753322572535977</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.04596055650610924</v>
+        <v>0.0459368253536915</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.07171268293273063</v>
+        <v>0.06943130189222912</v>
       </c>
     </row>
     <row r="73">
@@ -5731,19 +5731,19 @@
         <v>76462</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>59477</v>
+        <v>60549</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>97989</v>
+        <v>98489</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.09580841723138712</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.07452544006799053</v>
+        <v>0.0758687930948336</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.1227823936055496</v>
+        <v>0.1234091622046917</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>180</v>
@@ -5752,19 +5752,19 @@
         <v>146722</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>126047</v>
+        <v>125632</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>166838</v>
+        <v>166417</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.177199051694682</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.1522298334793869</v>
+        <v>0.1517292099302576</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.2014946204000869</v>
+        <v>0.2009861031253078</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>247</v>
@@ -5773,19 +5773,19 @@
         <v>223184</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>195438</v>
+        <v>197673</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>252976</v>
+        <v>254751</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.1372528345693581</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.1201900152269865</v>
+        <v>0.1215644740372972</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.1555747109588852</v>
+        <v>0.1566663101746653</v>
       </c>
     </row>
     <row r="75">
@@ -5802,19 +5802,19 @@
         <v>80891</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>62536</v>
+        <v>62998</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>100641</v>
+        <v>100783</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.1013579214389651</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.07835906875251149</v>
+        <v>0.07893800874416342</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.1261055695608452</v>
+        <v>0.1262836539834876</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>148</v>
@@ -5823,19 +5823,19 @@
         <v>112964</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>96173</v>
+        <v>97049</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>131840</v>
+        <v>132709</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.1364291626863234</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.1161504486936528</v>
+        <v>0.1172088728255069</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.1592264855424849</v>
+        <v>0.1602762974317664</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>221</v>
@@ -5844,19 +5844,19 @@
         <v>193855</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>169933</v>
+        <v>168061</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>219512</v>
+        <v>219934</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.1192163294536081</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.1045049883225681</v>
+        <v>0.1033540045947226</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.1349952121499295</v>
+        <v>0.1352545898565408</v>
       </c>
     </row>
     <row r="76">
@@ -5873,19 +5873,19 @@
         <v>194434</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>170296</v>
+        <v>168200</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>221738</v>
+        <v>219395</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.2436297377689196</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.2133846376705351</v>
+        <v>0.2107578036130343</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2778426455965669</v>
+        <v>0.2749057574686093</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>387</v>
@@ -5894,19 +5894,19 @@
         <v>291829</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>267706</v>
+        <v>268233</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>315857</v>
+        <v>316342</v>
       </c>
       <c r="N76" s="6" t="n">
-        <v>0.3524483509445502</v>
+        <v>0.3524483509445503</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.3233147199608569</v>
+        <v>0.323951434959369</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.3814684303756811</v>
+        <v>0.3820536123826834</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>577</v>
@@ -5915,19 +5915,19 @@
         <v>486263</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>452085</v>
+        <v>450655</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>522929</v>
+        <v>519840</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.2990405850774503</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.2780221337253241</v>
+        <v>0.2771425189342744</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.3215898153571765</v>
+        <v>0.3196899669318187</v>
       </c>
     </row>
     <row r="77">
@@ -5944,19 +5944,19 @@
         <v>153782</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>132502</v>
+        <v>130688</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>179190</v>
+        <v>179232</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.1926918954118528</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.1660277751082958</v>
+        <v>0.1637542826544814</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.2245282784550837</v>
+        <v>0.2245814980189559</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>225</v>
@@ -5965,19 +5965,19 @@
         <v>177431</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>157206</v>
+        <v>155067</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>198676</v>
+        <v>200843</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.2142873877450905</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.1898619925866627</v>
+        <v>0.1872777190062569</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.2399458616871708</v>
+        <v>0.2425625975094914</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>373</v>
@@ -5986,19 +5986,19 @@
         <v>331213</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>296739</v>
+        <v>299117</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>363000</v>
+        <v>364490</v>
       </c>
       <c r="U77" s="6" t="n">
-        <v>0.2036884013707944</v>
+        <v>0.2036884013707943</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.182487766386295</v>
+        <v>0.1839502739970036</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.2232366110471541</v>
+        <v>0.2241530689159901</v>
       </c>
     </row>
     <row r="78">
@@ -6015,19 +6015,19 @@
         <v>72233</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>56505</v>
+        <v>57086</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>93800</v>
+        <v>91767</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.09050912133250524</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.07080175855733679</v>
+        <v>0.07152952096504431</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.1175336123338576</v>
+        <v>0.1149856900037269</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>61</v>
@@ -6036,19 +6036,19 @@
         <v>53074</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>39042</v>
+        <v>42216</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>67288</v>
+        <v>68049</v>
       </c>
       <c r="N78" s="6" t="n">
-        <v>0.06409888768307491</v>
+        <v>0.06409888768307492</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.04715140819855947</v>
+        <v>0.0509851211276264</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.08126559075790267</v>
+        <v>0.08218429859532589</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>124</v>
@@ -6057,19 +6057,19 @@
         <v>125307</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>104838</v>
+        <v>104353</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>149500</v>
+        <v>149018</v>
       </c>
       <c r="U78" s="6" t="n">
-        <v>0.0770609309777055</v>
+        <v>0.07706093097770549</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.06447323199411163</v>
+        <v>0.06417480220064747</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.09193911920250687</v>
+        <v>0.09164294791798187</v>
       </c>
     </row>
     <row r="79">
@@ -6086,19 +6086,19 @@
         <v>14934</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>7516</v>
+        <v>8352</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>25703</v>
+        <v>27740</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.01871308381474227</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.009417398608468058</v>
+        <v>0.01046474589914533</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.03220634010381139</v>
+        <v>0.03475914191543358</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>11</v>
@@ -6107,19 +6107,19 @@
         <v>9236</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>4461</v>
+        <v>4525</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>16509</v>
+        <v>16420</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.01115492991224785</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.005387326859315783</v>
+        <v>0.005464418856681844</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.01993822570845507</v>
+        <v>0.01983092961509937</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>24</v>
@@ -6128,19 +6128,19 @@
         <v>24171</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>15478</v>
+        <v>15482</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>35878</v>
+        <v>36911</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.01486444340660222</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.00951856772385528</v>
+        <v>0.009521249625989374</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.02206394458222653</v>
+        <v>0.02269928919452953</v>
       </c>
     </row>
     <row r="80">
@@ -6157,19 +6157,19 @@
         <v>4588</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1451</v>
+        <v>1533</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>10618</v>
+        <v>11200</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.00574921386568852</v>
+        <v>0.005749213865688519</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.001818490718684713</v>
+        <v>0.001920764495315719</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.01330451776968295</v>
+        <v>0.01403347209689386</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>0</v>
@@ -6191,19 +6191,19 @@
         <v>4588</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>10369</v>
+        <v>10346</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.002821692531249241</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.000890413310210462</v>
+        <v>0.000893247555101538</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.006376636448256811</v>
+        <v>0.006362452052535101</v>
       </c>
     </row>
     <row r="81">
@@ -6220,19 +6220,19 @@
         <v>16820</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>10451</v>
+        <v>10254</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>26076</v>
+        <v>25488</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>0.02107517474778304</v>
+        <v>0.02107517474778303</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.01309473865870973</v>
+        <v>0.01284866868034434</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.03267358012385052</v>
+        <v>0.03193753261959791</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>5</v>
@@ -6241,19 +6241,19 @@
         <v>4347</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>1482</v>
+        <v>1619</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>9869</v>
+        <v>10257</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.005250478257896492</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.001789280715918411</v>
+        <v>0.001955293719884534</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.01191940906278147</v>
+        <v>0.01238721434657238</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>24</v>
@@ -6262,19 +6262,19 @@
         <v>21167</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>13858</v>
+        <v>13737</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>30714</v>
+        <v>31201</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.01301717974751857</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.008522541722575515</v>
+        <v>0.00844809537730255</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.0188881967807465</v>
+        <v>0.01918775852832588</v>
       </c>
     </row>
     <row r="82">
@@ -6291,19 +6291,19 @@
         <v>183928</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>158885</v>
+        <v>159697</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>208636</v>
+        <v>207827</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.2304654343881563</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1990860128580596</v>
+        <v>0.2001031661634359</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.2614253742609794</v>
+        <v>0.2604107664594659</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>41</v>
@@ -6312,19 +6312,19 @@
         <v>32401</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>24266</v>
+        <v>23831</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>44046</v>
+        <v>43033</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.03913175107613456</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.02930645045003341</v>
+        <v>0.0287817629479431</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.05319515838108355</v>
+        <v>0.05197214013266782</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>225</v>
@@ -6333,19 +6333,19 @@
         <v>216329</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>187614</v>
+        <v>191343</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>243176</v>
+        <v>244573</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.1330376028657136</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.1153785723082576</v>
+        <v>0.1176716051689192</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.1495478136905526</v>
+        <v>0.1504069859309548</v>
       </c>
     </row>
     <row r="83">
@@ -6437,19 +6437,19 @@
         <v>620735</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>570483</v>
+        <v>569131</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>669629</v>
+        <v>673675</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.1760847114007972</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.161829647124162</v>
+        <v>0.1614461578372334</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.1899544873213449</v>
+        <v>0.1911022542583818</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>1845</v>
@@ -6458,19 +6458,19 @@
         <v>1186464</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>1139343</v>
+        <v>1135361</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>1237041</v>
+        <v>1233085</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.3183532230944283</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.3057096349695195</v>
+        <v>0.304641200187052</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.3319240739077826</v>
+        <v>0.3308625014123517</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>2450</v>
@@ -6479,19 +6479,19 @@
         <v>1807199</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>1741886</v>
+        <v>1740185</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>1886694</v>
+        <v>1874859</v>
       </c>
       <c r="U84" s="6" t="n">
-        <v>0.2491971029518278</v>
+        <v>0.2491971029518277</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.2401909293445659</v>
+        <v>0.2399563470968033</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.2601586911643961</v>
+        <v>0.2585268153710837</v>
       </c>
     </row>
     <row r="85">
@@ -6508,19 +6508,19 @@
         <v>423071</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>384441</v>
+        <v>383784</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>464046</v>
+        <v>465495</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.1200130321410216</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.109054823337019</v>
+        <v>0.1088684490311156</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.1316363515742004</v>
+        <v>0.1320474664995391</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>855</v>
@@ -6529,19 +6529,19 @@
         <v>559144</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>519833</v>
+        <v>520844</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>595594</v>
+        <v>596803</v>
       </c>
       <c r="N85" s="6" t="n">
         <v>0.1500301709564912</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.1394820780659523</v>
+        <v>0.1397533797350737</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.1598104059249308</v>
+        <v>0.1601346884767896</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>1308</v>
@@ -6550,19 +6550,19 @@
         <v>982215</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>934018</v>
+        <v>926956</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>1040117</v>
+        <v>1041506</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.1354389670875</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.1287929109227121</v>
+        <v>0.1278191309133816</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.1434231528114977</v>
+        <v>0.1436146106980613</v>
       </c>
     </row>
     <row r="86">
@@ -6579,19 +6579,19 @@
         <v>471540</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>426169</v>
+        <v>430558</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>517685</v>
+        <v>521595</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.1337622417832984</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.1208918285491239</v>
+        <v>0.12213678935878</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.146852239218085</v>
+        <v>0.1479613529695695</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>928</v>
@@ -6600,19 +6600,19 @@
         <v>675044</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>636558</v>
+        <v>635876</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>722132</v>
+        <v>715151</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.1811283751043468</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.170801870544213</v>
+        <v>0.1706190078269188</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.1937631207348611</v>
+        <v>0.1918901333431613</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>1358</v>
@@ -6621,19 +6621,19 @@
         <v>1146583</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>1087162</v>
+        <v>1082728</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>1209861</v>
+        <v>1204380</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.1581038985870495</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.1499102298842986</v>
+        <v>0.1492988581486796</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.1668292966510725</v>
+        <v>0.1660736125062239</v>
       </c>
     </row>
     <row r="87">
@@ -6650,19 +6650,19 @@
         <v>617665</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>563103</v>
+        <v>569049</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>675161</v>
+        <v>672885</v>
       </c>
       <c r="G87" s="6" t="n">
         <v>0.1752136717945443</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.1597359698608743</v>
+        <v>0.1614227708425876</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.1915235920401345</v>
+        <v>0.1908779513520223</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>861</v>
@@ -6671,19 +6671,19 @@
         <v>673544</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>631279</v>
+        <v>631376</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>718121</v>
+        <v>718882</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.1807259017525022</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.1693855328816168</v>
+        <v>0.1694114389027886</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.1926870257175858</v>
+        <v>0.1928912392411176</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>1370</v>
@@ -6692,19 +6692,19 @@
         <v>1291208</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>1222390</v>
+        <v>1222292</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>1361917</v>
+        <v>1357711</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.1780464301485039</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.1685569912001796</v>
+        <v>0.168543498562444</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.1877966035124138</v>
+        <v>0.1872165361654429</v>
       </c>
     </row>
     <row r="88">
@@ -6721,19 +6721,19 @@
         <v>660517</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>610069</v>
+        <v>607681</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>716122</v>
+        <v>713493</v>
       </c>
       <c r="G88" s="6" t="n">
         <v>0.1873695636187518</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.1730589373271402</v>
+        <v>0.1723814439686757</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.2031431150773793</v>
+        <v>0.2023974194349767</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>567</v>
@@ -6742,19 +6742,19 @@
         <v>432535</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>399689</v>
+        <v>397936</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>470950</v>
+        <v>474020</v>
       </c>
       <c r="N88" s="6" t="n">
         <v>0.1160582740482242</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0.1072448762665702</v>
+        <v>0.106774671258359</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.1263658904434016</v>
+        <v>0.1271895555463276</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>1130</v>
@@ -6763,19 +6763,19 @@
         <v>1093052</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>1029780</v>
+        <v>1030520</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>1159740</v>
+        <v>1157737</v>
       </c>
       <c r="U88" s="6" t="n">
         <v>0.1507223894617824</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.1419976799730621</v>
+        <v>0.1420998056311107</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.1599181353732884</v>
+        <v>0.1596419286367518</v>
       </c>
     </row>
     <row r="89">
@@ -6792,19 +6792,19 @@
         <v>118565</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>96778</v>
+        <v>98061</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>142811</v>
+        <v>143102</v>
       </c>
       <c r="G89" s="6" t="n">
         <v>0.03363333493130605</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.0274531114409353</v>
+        <v>0.02781719864146161</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.04051144210938624</v>
+        <v>0.04059395902014729</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>84</v>
@@ -6813,19 +6813,19 @@
         <v>61749</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>48322</v>
+        <v>48893</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>77148</v>
+        <v>76475</v>
       </c>
       <c r="N89" s="6" t="n">
         <v>0.01656856067441726</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.0129658589606017</v>
+        <v>0.01311891722399126</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.02070033162865194</v>
+        <v>0.02051997432175438</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>199</v>
@@ -6834,19 +6834,19 @@
         <v>180314</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>157164</v>
+        <v>156676</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>209042</v>
+        <v>210810</v>
       </c>
       <c r="U89" s="6" t="n">
         <v>0.02486367506527503</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.02167156771851815</v>
+        <v>0.02160420530782495</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.02882512925432718</v>
+        <v>0.02906887351157801</v>
       </c>
     </row>
     <row r="90">
@@ -6863,19 +6863,19 @@
         <v>38217</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>27150</v>
+        <v>27330</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>52463</v>
+        <v>56284</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.01084096902897752</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.00770180705312646</v>
+        <v>0.007752708005522439</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.01488220016172224</v>
+        <v>0.01596603231766912</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>30</v>
@@ -6884,19 +6884,19 @@
         <v>18888</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>12466</v>
+        <v>13109</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>27618</v>
+        <v>28230</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.005067959014728405</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>0.003344979562041171</v>
+        <v>0.003517347395433776</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.0074104133689054</v>
+        <v>0.007574765430899745</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>69</v>
@@ -6905,19 +6905,19 @@
         <v>57104</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>44993</v>
+        <v>42539</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>73762</v>
+        <v>74601</v>
       </c>
       <c r="U90" s="6" t="n">
-        <v>0.007874194698064928</v>
+        <v>0.007874194698064932</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.006204083376766165</v>
+        <v>0.005865755569880562</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.01017116671030832</v>
+        <v>0.01028684285739563</v>
       </c>
     </row>
     <row r="91">
@@ -6934,19 +6934,19 @@
         <v>82160</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>66471</v>
+        <v>67355</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>99469</v>
+        <v>100837</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.0233062922775561</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.01885589935161379</v>
+        <v>0.01910673864759566</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.028216383783981</v>
+        <v>0.02860451576912005</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>33</v>
@@ -6955,19 +6955,19 @@
         <v>21174</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>15043</v>
+        <v>14669</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>29580</v>
+        <v>30301</v>
       </c>
       <c r="N91" s="6" t="n">
         <v>0.005681350599007182</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.004036280831855937</v>
+        <v>0.003936045747290726</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.007936980809674978</v>
+        <v>0.008130466874546174</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>130</v>
@@ -6976,19 +6976,19 @@
         <v>103333</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>85169</v>
+        <v>85658</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>122207</v>
+        <v>121975</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.01424875999774218</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.01174400315663465</v>
+        <v>0.01181142966332926</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.01685132795371646</v>
+        <v>0.01681935300173321</v>
       </c>
     </row>
     <row r="92">
@@ -7005,19 +7005,19 @@
         <v>492740</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>449869</v>
+        <v>454498</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>531474</v>
+        <v>534320</v>
       </c>
       <c r="G92" s="6" t="n">
         <v>0.139776183023747</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.1276148485817586</v>
+        <v>0.1289278609675074</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.1507637948444414</v>
+        <v>0.151571125151597</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>150</v>
@@ -7026,19 +7026,19 @@
         <v>98338</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>84198</v>
+        <v>84414</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>116047</v>
+        <v>116642</v>
       </c>
       <c r="N92" s="6" t="n">
         <v>0.02638618475585439</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.0225922092521919</v>
+        <v>0.02264999030178472</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.03113777247528933</v>
+        <v>0.03129753824337748</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>708</v>
@@ -7047,19 +7047,19 @@
         <v>591078</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>548920</v>
+        <v>545833</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>636520</v>
+        <v>639127</v>
       </c>
       <c r="U92" s="6" t="n">
         <v>0.08150458200225423</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.07569133831320497</v>
+        <v>0.07526558406375604</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.08777054143983945</v>
+        <v>0.08813001121303625</v>
       </c>
     </row>
     <row r="93">
